--- a/medicine/Maladies infectieuses/Salim_Laïbi/Salim_Laïbi.xlsx
+++ b/medicine/Maladies infectieuses/Salim_Laïbi/Salim_Laïbi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salim_La%C3%AFbi</t>
+          <t>Salim_Laïbi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salim Laïbi est un chirurgien-dentiste français, installé à Marseille[1], connu comme polémiste, conférencier[1], blogueur, éditeur, essayiste et vidéaste web sous le pseudonyme Le Libre Penseur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salim Laïbi est un chirurgien-dentiste français, installé à Marseille, connu comme polémiste, conférencier, blogueur, éditeur, essayiste et vidéaste web sous le pseudonyme Le Libre Penseur.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salim_La%C3%AFbi</t>
+          <t>Salim_Laïbi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est décrit comme un des premiers importateurs des États-Unis du conspirationnisme en France et ce depuis les années 2000[2]. Son site internet compte plus d'un million de vues par mois[2].
-Critique du sionisme, il a rencontré l'opposition de la Ligue internationale contre le racisme et l'antisémitisme[1],[3],[4].
-Il s'est présenté aux Élections législatives de 2012 dans les Bouches-du-Rhône pour la septième circonscription des Bouches-du-Rhône[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est décrit comme un des premiers importateurs des États-Unis du conspirationnisme en France et ce depuis les années 2000. Son site internet compte plus d'un million de vues par mois.
+Critique du sionisme, il a rencontré l'opposition de la Ligue internationale contre le racisme et l'antisémitisme.
+Il s'est présenté aux Élections législatives de 2012 dans les Bouches-du-Rhône pour la septième circonscription des Bouches-du-Rhône.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Salim_La%C3%AFbi</t>
+          <t>Salim_Laïbi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Positionnement politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se positionne comme un critique de la médecine dans le débat sur la controverse sur la vaccination[2] et dans l'opposition aux mesures de lutte contre la pandémie de Covid-19[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se positionne comme un critique de la médecine dans le débat sur la controverse sur la vaccination et dans l'opposition aux mesures de lutte contre la pandémie de Covid-19.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salim_La%C3%AFbi</t>
+          <t>Salim_Laïbi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Réseaux sociaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir atteint les 130 000 abonnés, sa chaîne YouTube (143 000 abonnés[7]) est supprimée, il a ensuite migré sur Odysee et comptait 21 000 abonnés en 2023, sa page Facebook plus de 130 000 abonnés[8]. Dès 2020, il co-anime l'émission sur internet L'info en question avec Jean-Jacques Crèvecœur, Christian Tal Schaller et Chloé Frammery l’émission « l’info en QuestionS » sur YouTube[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir atteint les 130 000 abonnés, sa chaîne YouTube (143 000 abonnés) est supprimée, il a ensuite migré sur Odysee et comptait 21 000 abonnés en 2023, sa page Facebook plus de 130 000 abonnés. Dès 2020, il co-anime l'émission sur internet L'info en question avec Jean-Jacques Crèvecœur, Christian Tal Schaller et Chloé Frammery l’émission « l’info en QuestionS » sur YouTube.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Salim_La%C3%AFbi</t>
+          <t>Salim_Laïbi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le 11 septembre n’a pas eu lieu, Fiat Lux
 La faillite du monde moderne, Fiat Lux, 1999
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Salim_La%C3%AFbi</t>
+          <t>Salim_Laïbi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kimto Vasquez, Kovidizm 2022, 2 samples de la voix de Salim Laibi.</t>
         </is>
